--- a/Pedidos/DataExcel/MovimientoDeInventario.xlsx
+++ b/Pedidos/DataExcel/MovimientoDeInventario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="58">
   <si>
     <t>Idioma</t>
   </si>
@@ -61,7 +61,7 @@
     <t>CantidadActual2</t>
   </si>
   <si>
-    <t>CantidadMovida</t>
+    <t>CantidadAMover</t>
   </si>
   <si>
     <t>automated.test@grupokaizen.net</t>
@@ -73,51 +73,57 @@
     <t>EntradaDeMercancias</t>
   </si>
   <si>
+    <t>TransferenciaDeMercancias</t>
+  </si>
+  <si>
     <t>SalidaDeMercancias</t>
   </si>
   <si>
-    <t>TransferenciaDeMercancias</t>
+    <t>InitialLoading</t>
+  </si>
+  <si>
+    <t>DevolucionProducto</t>
+  </si>
+  <si>
+    <t>EntradaPorFabricacion</t>
+  </si>
+  <si>
+    <t>VerificaciónCalidad</t>
+  </si>
+  <si>
+    <t>DannoProducto</t>
+  </si>
+  <si>
+    <t>DispatchOutput</t>
+  </si>
+  <si>
+    <t>DevolucionProductoCompra</t>
+  </si>
+  <si>
+    <t>Fabricacion</t>
   </si>
   <si>
     <t>CompraProductos</t>
   </si>
   <si>
-    <t>DevolucionProducto</t>
-  </si>
-  <si>
-    <t>EntradaPorFabricacion</t>
-  </si>
-  <si>
-    <t>InitialLoading</t>
-  </si>
-  <si>
-    <t>DispatchOutput</t>
-  </si>
-  <si>
-    <t>DevolucionProductoCompra</t>
-  </si>
-  <si>
     <t>VentaProducto</t>
   </si>
   <si>
-    <t>DannoProducto</t>
-  </si>
-  <si>
-    <t>Fabricacion</t>
-  </si>
-  <si>
-    <t>VerificaciónCalidad</t>
-  </si>
-  <si>
     <t>ParaDespacho</t>
   </si>
   <si>
+    <t>MP: Liquidos</t>
+  </si>
+  <si>
     <t>Materia Prima</t>
   </si>
   <si>
     <t>Producto Terminado</t>
   </si>
   <si>
+    <t>2663-909-114</t>
+  </si>
+  <si>
     <t>9511-101-140</t>
   </si>
   <si>
@@ -127,18 +133,15 @@
     <t>9440-303-304</t>
   </si>
   <si>
+    <t>9440-404-382</t>
+  </si>
+  <si>
     <t>9440-404-384</t>
   </si>
   <si>
-    <t>9440-404-385</t>
-  </si>
-  <si>
     <t>2590-114-102</t>
   </si>
   <si>
-    <t>7781-202-001</t>
-  </si>
-  <si>
     <t>1200-660-055</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>2663-101-455</t>
   </si>
   <si>
+    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
+  </si>
+  <si>
     <t>Envase 1/4 Gal - TRENTON5</t>
   </si>
   <si>
@@ -160,16 +166,13 @@
     <t>Cap Seal 3/4' TRENTON5</t>
   </si>
   <si>
+    <t>Tapa con Foil 38x400 Negro</t>
+  </si>
+  <si>
     <t>Tapa con Foil 38x400 Plateado</t>
   </si>
   <si>
-    <t>Tapa con Foil 38x400 Rojo</t>
-  </si>
-  <si>
     <t>CAJA CARTON TRENTONITE SYN BLEND - 12x1/4</t>
-  </si>
-  <si>
-    <t>TRENTON 5 LUBERMAX SYNTHETIC BLEND TOP HD FORTIFIED WITH MOLY 10W-40</t>
   </si>
   <si>
     <t>TRENTON5 PREMIUM MULTI-VIS HYDRAULIC OIL 100</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,19 +618,19 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2">
-        <v>182</v>
+        <v>5433581</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -636,16 +639,16 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>182</v>
+        <v>4052047</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P2">
-        <v>68</v>
+        <v>354562</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -662,10 +665,10 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -677,25 +680,25 @@
         <v>46</v>
       </c>
       <c r="J3">
-        <v>50000</v>
+        <v>5433581</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1381534</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>662382</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -712,13 +715,13 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>36</v>
@@ -727,7 +730,7 @@
         <v>47</v>
       </c>
       <c r="J4">
-        <v>384319</v>
+        <v>774</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -736,16 +739,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>198999</v>
+        <v>775</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P4">
-        <v>70710</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -762,40 +765,40 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
-        <v>99779</v>
+        <v>774</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>99779</v>
+        <v>-1</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P5">
-        <v>21664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -809,25 +812,25 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6">
-        <v>55000</v>
+        <v>50005</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -836,16 +839,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>55000</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P6">
-        <v>15563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -859,43 +862,43 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7">
-        <v>60000</v>
+        <v>50005</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -912,22 +915,22 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>823303</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -936,16 +939,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" t="s">
-        <v>56</v>
+        <v>96238</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>102761</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>28732</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -959,43 +962,43 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>542</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J9">
-        <v>200</v>
+        <v>823303</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>102761</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>96238</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>14442</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1009,39 +1012,27 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>563</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>38043</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>7</v>
-      </c>
-      <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
@@ -1062,40 +1053,40 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>572</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J11">
-        <v>94</v>
+        <v>43326</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>70</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
+        <v>43326</v>
+      </c>
+      <c r="N11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>14997</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1112,39 +1103,539 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>582</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
       </c>
       <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12">
+        <v>43326</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13">
+        <v>59999</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14">
+        <v>59999</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>542</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15">
+        <v>200</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>542</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>563</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>563</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>572</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
         <v>44</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I19" t="s">
         <v>55</v>
       </c>
-      <c r="J12">
-        <v>692</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="J19">
+        <v>94</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>2</v>
       </c>
-      <c r="M12">
-        <v>-108</v>
-      </c>
-      <c r="N12">
+      <c r="M19">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>572</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20">
+        <v>94</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>7</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="M20">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>582</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21">
+        <v>691</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>-109</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>582</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22">
+        <v>691</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>-109</v>
+      </c>
+      <c r="P22">
         <v>0</v>
       </c>
     </row>
